--- a/2019-09-21 5分钟使用Python爬取豆瓣TOP250电影榜/豆瓣电影TOP250.xlsx
+++ b/2019-09-21 5分钟使用Python爬取豆瓣TOP250电影榜/豆瓣电影TOP250.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -419,7 +419,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1607539</t>
+          <t>1790062</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1187564</t>
+          <t>1320110</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1248386</t>
+          <t>1376257</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1441393</t>
+          <t>1570867</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>730258</t>
+          <t>879501</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1188899</t>
+          <t>1314428</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1280625</t>
+          <t>1407622</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>645960</t>
+          <t>707102</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1228972</t>
+          <t>1337018</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>827261</t>
+          <t>909227</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>机器人总动员</t>
+          <t>海上钢琴师</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>815216</t>
+          <t>1102704</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>三傻大闹宝莱坞</t>
+          <t>机器人总动员</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1113829</t>
+          <t>883631</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>放牛班的春天</t>
+          <t>三傻大闹宝莱坞</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>776125</t>
+          <t>1219111</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海上钢琴师</t>
+          <t>楚门的世界</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -804,12 +804,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>898868</t>
+          <t>963683</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>楚门的世界</t>
+          <t>放牛班的春天</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>865636</t>
+          <t>850611</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>886804</t>
+          <t>977605</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>868237</t>
+          <t>954754</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>龙猫</t>
+          <t>熔炉</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>762169</t>
+          <t>579281</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>熔炉</t>
+          <t>龙猫</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>516094</t>
+          <t>824355</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>教父</t>
+          <t>无间道</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>554160</t>
+          <t>782205</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>无间道</t>
+          <t>疯狂动物城</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>712291</t>
+          <t>1123522</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>疯狂动物城</t>
+          <t>教父</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1006087</t>
+          <t>604989</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>901482</t>
+          <t>982603</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1011685</t>
+          <t>1119154</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>587596</t>
+          <t>642926</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>584721</t>
+          <t>658498</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>乱世佳人</t>
+          <t>活着</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>405122</t>
+          <t>508172</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>活着</t>
+          <t>控方证人</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>460033</t>
+          <t>240917</t>
         </is>
       </c>
     </row>
@@ -1244,22 +1244,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>控方证人</t>
+          <t>乱世佳人</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>209908</t>
+          <t>438537</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>877606</t>
+          <t>944946</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>885047</t>
+          <t>985501</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>444267</t>
+          <t>483081</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鬼子来了</t>
+          <t>飞屋环游记</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>372867</t>
+          <t>869004</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天空之城</t>
+          <t>末代皇帝</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>520234</t>
+          <t>434491</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>十二怒汉</t>
+          <t>寻梦环游记</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>265369</t>
+          <t>938898</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>飞屋环游记</t>
+          <t>十二怒汉</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>799265</t>
+          <t>291217</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天堂电影院</t>
+          <t>鬼子来了</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>424763</t>
+          <t>405895</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大话西游之月光宝盒</t>
+          <t>天空之城</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>701339</t>
+          <t>555086</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>哈尔的移动城堡</t>
+          <t>大话西游之月光宝盒</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>586832</t>
+          <t>771496</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>寻梦环游记</t>
+          <t>天堂电影院</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>845035</t>
+          <t>448806</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>末代皇帝</t>
+          <t>哈尔的移动城堡</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>373520</t>
+          <t>630852</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>罗马假日</t>
+          <t>何以为家</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>593307</t>
+          <t>515184</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>搏击俱乐部</t>
+          <t>罗马假日</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>555272</t>
+          <t>639429</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>闻香识女人</t>
+          <t>素媛</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>508247</t>
+          <t>381517</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>辩护人</t>
+          <t>闻香识女人</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>353977</t>
+          <t>552925</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>素媛</t>
+          <t>搏击俱乐部</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>338738</t>
+          <t>590863</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>窃听风暴</t>
+          <t>辩护人</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>349212</t>
+          <t>386418</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>死亡诗社</t>
+          <t>窃听风暴</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>425491</t>
+          <t>375795</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>两杆大烟枪</t>
+          <t>死亡诗社</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>377482</t>
+          <t>456617</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>飞越疯人院</t>
+          <t>教父2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>381692</t>
+          <t>331383</t>
         </is>
       </c>
     </row>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>414391</t>
+          <t>445597</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>教父2</t>
+          <t>狮子王</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>301021</t>
+          <t>503710</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>狮子王</t>
+          <t>两杆大烟枪</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>456580</t>
+          <t>400005</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>指环王1：魔戒再现</t>
+          <t>飞越疯人院</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>465331</t>
+          <t>403651</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>何以为家</t>
+          <t>哈利·波特与魔法石</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>393603</t>
+          <t>555833</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>V字仇杀队</t>
+          <t>指环王1：魔戒再现</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>652523</t>
+          <t>500691</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美丽心灵</t>
+          <t>饮食男女</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>455470</t>
+          <t>359470</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>饮食男女</t>
+          <t>大闹天宫</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>323139</t>
+          <t>230425</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海豚湾</t>
+          <t>美丽心灵</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2154,12 +2154,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>251605</t>
+          <t>491656</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大闹天宫</t>
+          <t>V字仇杀队</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>200043</t>
+          <t>701636</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>哈利·波特与魔法石</t>
+          <t>我不是药神</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>489151</t>
+          <t>1346461</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>钢琴家</t>
+          <t>黑客帝国</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>302008</t>
+          <t>496199</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>情书</t>
+          <t>钢琴家</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>558279</t>
+          <t>328181</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>594542</t>
+          <t>644506</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>看不见的客人</t>
+          <t>海豚湾</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>660431</t>
+          <t>266500</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>黑客帝国</t>
+          <t>猫鼠游戏</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>450019</t>
+          <t>485568</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>西西里的美丽传说</t>
+          <t>让子弹飞</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>571500</t>
+          <t>1050628</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>小鞋子</t>
+          <t>看不见的客人</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2424,12 +2424,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>226673</t>
+          <t>734478</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>让子弹飞</t>
+          <t>情书</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>965940</t>
+          <t>597830</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>拯救大兵瑞恩</t>
+          <t>西西里的美丽传说</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>381306</t>
+          <t>626286</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美国往事</t>
+          <t>小鞋子</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>254806</t>
+          <t>251269</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>猫鼠游戏</t>
+          <t>拯救大兵瑞恩</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>424194</t>
+          <t>414752</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>音乐之声</t>
+          <t>美国往事</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>352074</t>
+          <t>276133</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>致命魔术</t>
+          <t>音乐之声</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>511443</t>
+          <t>382607</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>七宗罪</t>
+          <t>致命魔术</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>607585</t>
+          <t>551704</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>被嫌弃的松子的一生</t>
+          <t>穿条纹睡衣的男孩</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>458611</t>
+          <t>306375</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>低俗小说</t>
+          <t>七宗罪</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>508964</t>
+          <t>648926</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>沉默的羔羊</t>
+          <t>低俗小说</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>510531</t>
+          <t>551165</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>穿条纹睡衣的男孩</t>
+          <t>被嫌弃的松子的一生</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>269907</t>
+          <t>492847</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蝴蝶效应</t>
+          <t>沉默的羔羊</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>563636</t>
+          <t>548163</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>春光乍泄</t>
+          <t>蝴蝶效应</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>379027</t>
+          <t>605357</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>勇敢的心</t>
+          <t>春光乍泄</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>395641</t>
+          <t>408304</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>天使爱美丽</t>
+          <t>心灵捕手</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>671908</t>
+          <t>450084</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>心灵捕手</t>
+          <t>禁闭岛</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2904,12 +2904,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>414837</t>
+          <t>601577</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>剪刀手爱德华</t>
+          <t>布达佩斯大饭店</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>692701</t>
+          <t>564922</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>禁闭岛</t>
+          <t>勇敢的心</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>553653</t>
+          <t>417740</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>布达佩斯大饭店</t>
+          <t>剪刀手爱德华</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>517069</t>
+          <t>739663</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>阿凡达</t>
+          <t>天使爱美丽</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>810317</t>
+          <t>713929</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>我不是药神</t>
+          <t>阿凡达</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1225829</t>
+          <t>873525</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>幽灵公主</t>
+          <t>摩登时代</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>343570</t>
+          <t>175218</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>入殓师</t>
+          <t>加勒比海盗</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>408255</t>
+          <t>576793</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>摩登时代</t>
+          <t>致命ID</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>155227</t>
+          <t>504615</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>加勒比海盗</t>
+          <t>海蒂和爷爷</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>534833</t>
+          <t>195270</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>致命ID</t>
+          <t>断背山</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3204,12 +3204,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>466843</t>
+          <t>493520</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>断背山</t>
+          <t>喜剧之王</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3234,12 +3234,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>590589</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>阳光灿烂的日子</t>
+          <t>幽灵公主</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3264,12 +3264,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>388641</t>
+          <t>363300</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>重庆森林</t>
+          <t>入殓师</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>483641</t>
+          <t>426813</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>第六感</t>
+          <t>绿皮书</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3324,12 +3324,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>334157</t>
+          <t>921630</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>喜剧之王</t>
+          <t>阳光灿烂的日子</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3354,12 +3354,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>533098</t>
+          <t>415503</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>202373</t>
+          <t>220905</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>玛丽和马克思</t>
+          <t>重庆森林</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3414,12 +3414,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>295150</t>
+          <t>520694</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>消失的爱人</t>
+          <t>第六感</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3444,12 +3444,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>540222</t>
+          <t>357297</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>小森林 夏秋篇</t>
+          <t>杀人回忆</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>235232</t>
+          <t>396688</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>告白</t>
+          <t>小森林 夏秋篇</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3504,12 +3504,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>477783</t>
+          <t>259586</t>
         </is>
       </c>
     </row>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>342273</t>
+          <t>382156</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>大鱼</t>
+          <t>消失的爱人</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>357477</t>
+          <t>584273</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>一一</t>
+          <t>玛丽和马克思</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>214916</t>
+          <t>311042</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>爱在黎明破晓前</t>
+          <t>告白</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>337004</t>
+          <t>505336</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>阳光姐妹淘</t>
+          <t>红辣椒</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>388468</t>
+          <t>244157</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>海蒂和爷爷</t>
+          <t>爱在黎明破晓前</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>156951</t>
+          <t>370178</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>射雕英雄传之东成西就</t>
+          <t>一一</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3714,12 +3714,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>394740</t>
+          <t>230036</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>侧耳倾听</t>
+          <t>哈利·波特与死亡圣器(下)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3744,12 +3744,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>265237</t>
+          <t>466109</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>红辣椒</t>
+          <t>7号房的礼物</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3774,12 +3774,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>219244</t>
+          <t>320465</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>甜蜜蜜</t>
+          <t>大鱼</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>314520</t>
+          <t>382894</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>杀人回忆</t>
+          <t>侧耳倾听</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>339857</t>
+          <t>289659</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>驯龙高手</t>
+          <t>阳光姐妹淘</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>451710</t>
+          <t>416889</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>倩女幽魂</t>
+          <t>射雕英雄传之东成西就</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>413561</t>
+          <t>424326</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7号房的礼物</t>
+          <t>小森林 冬春篇</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>288920</t>
+          <t>227004</t>
         </is>
       </c>
     </row>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>265592</t>
+          <t>292846</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>哈利·波特与死亡圣器(下)</t>
+          <t>甜蜜蜜</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3984,12 +3984,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>421820</t>
+          <t>336687</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>小森林 冬春篇</t>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4014,12 +4014,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>203883</t>
+          <t>466374</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>恐怖直播</t>
+          <t>倩女幽魂</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4044,12 +4044,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>361487</t>
+          <t>452354</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>菊次郎的夏天</t>
+          <t>驯龙高手</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4074,12 +4074,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>295019</t>
+          <t>491373</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>爱在日落黄昏时</t>
+          <t>唐伯虎点秋香</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>293850</t>
+          <t>632806</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>蝙蝠侠：黑暗骑士崛起</t>
+          <t>菊次郎的夏天</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>427903</t>
+          <t>324310</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>风之谷</t>
+          <t>萤火之森</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>250695</t>
+          <t>304831</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>幸福终点站</t>
+          <t>恐怖直播</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>318601</t>
+          <t>396025</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>萤火之森</t>
+          <t>爱在日落黄昏时</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>273245</t>
+          <t>319889</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>唐伯虎点秋香</t>
+          <t>幸福终点站</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>568169</t>
+          <t>345698</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>584701</t>
+          <t>633967</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>317444</t>
+          <t>343696</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>上帝之城</t>
+          <t>无人知晓</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>204288</t>
+          <t>161618</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>神偷奶爸</t>
+          <t>风之谷</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>590694</t>
+          <t>262989</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>无人知晓</t>
+          <t>神偷奶爸</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4404,12 +4404,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>140710</t>
+          <t>638417</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>怪兽电力公司</t>
+          <t>上帝之城</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>374962</t>
+          <t>215402</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>玩具总动员3</t>
+          <t>怪兽电力公司</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>288350</t>
+          <t>409421</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>电锯惊魂</t>
+          <t>玩具总动员3</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>297320</t>
+          <t>317356</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>486820</t>
+          <t>528268</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>岁月神偷</t>
+          <t>电锯惊魂</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>402124</t>
+          <t>323877</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>谍影重重3</t>
+          <t>完美的世界</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>261715</t>
+          <t>149020</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>疯狂原始人</t>
+          <t>喜宴</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>532739</t>
+          <t>219818</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>英雄本色</t>
+          <t>岁月神偷</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>287870</t>
+          <t>426441</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>喜宴</t>
+          <t>时空恋旅人</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4674,12 +4674,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>345325</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>七武士</t>
+          <t>傲慢与偏见</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>111619</t>
+          <t>481760</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>傲慢与偏见</t>
+          <t>谍影重重3</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4734,12 +4734,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>442658</t>
+          <t>282249</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>时空恋旅人</t>
+          <t>七武士</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>313406</t>
+          <t>122310</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>萤火虫之墓</t>
+          <t>英雄本色</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>278871</t>
+          <t>316498</t>
         </is>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>东邪西毒</t>
+          <t>教父3</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4824,12 +4824,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>372811</t>
+          <t>219095</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>真爱至上</t>
+          <t>疯狂原始人</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4854,12 +4854,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>439215</t>
+          <t>570705</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>贫民窟的百万富翁</t>
+          <t>真爱至上</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>506515</t>
+          <t>481226</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>完美的世界</t>
+          <t>被解救的姜戈</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4914,12 +4914,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>130061</t>
+          <t>399907</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>黑天鹅</t>
+          <t>萤火虫之墓</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4944,12 +4944,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>560674</t>
+          <t>296570</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>记忆碎片</t>
+          <t>东邪西毒</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>381584</t>
+          <t>399470</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>282944</t>
+          <t>311740</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>纵横四海</t>
+          <t>三块广告牌</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>234645</t>
+          <t>553096</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>教父3</t>
+          <t>爆裂鼓手</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>198106</t>
+          <t>359695</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>荒蛮故事</t>
+          <t>纵横四海</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>231687</t>
+          <t>257027</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>达拉斯买家俱乐部</t>
+          <t>记忆碎片</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>271977</t>
+          <t>406858</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>三块广告牌</t>
+          <t>贫民窟的百万富翁</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>509159</t>
+          <t>531252</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>被解救的姜戈</t>
+          <t>哪吒闹海</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>368302</t>
+          <t>153459</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>雨人</t>
+          <t>黑天鹅</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5214,12 +5214,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>272826</t>
+          <t>592923</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>花样年华</t>
+          <t>达拉斯买家俱乐部</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5244,12 +5244,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>345380</t>
+          <t>293585</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>我是山姆</t>
+          <t>荒蛮故事</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>164277</t>
+          <t>258619</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5294,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>你的名字。</t>
+          <t>我是山姆</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>787391</t>
+          <t>184386</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>卢旺达饭店</t>
+          <t>花样年华</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5334,12 +5334,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>165361</t>
+          <t>370749</t>
         </is>
       </c>
     </row>
@@ -5354,22 +5354,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>哪吒闹海</t>
+          <t>你的名字。</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>136434</t>
+          <t>872520</t>
         </is>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>头脑特工队</t>
+          <t>功夫</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5394,12 +5394,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>350209</t>
+          <t>565363</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>海边的曼彻斯特</t>
+          <t>天书奇谭</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>302743</t>
+          <t>116908</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>你看起来好像很好吃</t>
+          <t>头号玩家</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5454,12 +5454,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>207438</t>
+          <t>926270</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>恋恋笔记本</t>
+          <t>卢旺达饭店</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>395014</t>
+          <t>182247</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>无敌破坏王</t>
+          <t>雨人</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>316247</t>
+          <t>288479</t>
         </is>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>冰川时代</t>
+          <t>头脑特工队</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>389548</t>
+          <t>379213</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>二十二</t>
+          <t>忠犬八公物语</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>175448</t>
+          <t>114366</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>虎口脱险</t>
+          <t>一个叫欧维的男人决定去死</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>144289</t>
+          <t>227448</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>未麻的部屋</t>
+          <t>模仿游戏</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>153176</t>
+          <t>392795</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>模仿游戏</t>
+          <t>你看起来好像很好吃</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5664,12 +5664,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>364924</t>
+          <t>223455</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>爆裂鼓手</t>
+          <t>无敌破坏王</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>332268</t>
+          <t>343741</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>一个叫欧维的男人决定去死</t>
+          <t>未麻的部屋</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>203429</t>
+          <t>168250</t>
         </is>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>雨中曲</t>
+          <t>海边的曼彻斯特</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5754,12 +5754,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>127947</t>
+          <t>324574</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>冰川时代</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>118010</t>
+          <t>417435</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>忠犬八公物语</t>
+          <t>恋恋笔记本</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>101019</t>
+          <t>425455</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>天书奇谭</t>
+          <t>黑客帝国3：矩阵革命</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5844,12 +5844,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>261863</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>头号玩家</t>
+          <t>二十二</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>852344</t>
+          <t>192805</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>虎口脱险</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5904,12 +5904,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>265054</t>
+          <t>154574</t>
         </is>
       </c>
     </row>
@@ -5924,22 +5924,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>燃情岁月</t>
+          <t>釜山行</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>188889</t>
+          <t>675314</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>魔女宅急便</t>
+          <t>雨中曲</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5964,12 +5964,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>288092</t>
+          <t>136930</t>
         </is>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>房间</t>
+          <t>海街日记</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>236242</t>
+          <t>244952</t>
         </is>
       </c>
     </row>
@@ -6014,22 +6014,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>黑客帝国3：矩阵革命</t>
+          <t>人生果实</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>234263</t>
+          <t>63714</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>穿越时空的少女</t>
+          <t>房间</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6054,12 +6054,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>256639</t>
+          <t>256036</t>
         </is>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>海街日记</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>222432</t>
+          <t>285632</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>471864</t>
+          <t>510866</t>
         </is>
       </c>
     </row>
@@ -6134,22 +6134,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>功夫</t>
+          <t>魔女宅急便</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>490108</t>
+          <t>306876</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>魂断蓝桥</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>168394</t>
+          <t>122689</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>131282</t>
+          <t>146109</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>罗生门</t>
+          <t>燃情岁月</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>180577</t>
+          <t>200075</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>完美陌生人</t>
+          <t>罗生门</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6264,12 +6264,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>342119</t>
+          <t>198260</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>猜火车</t>
+          <t>穿越时空的少女</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6294,12 +6294,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>310955</t>
+          <t>274267</t>
         </is>
       </c>
     </row>
@@ -6314,22 +6314,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>阿飞正传</t>
+          <t>疯狂的石头</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>303730</t>
+          <t>513538</t>
         </is>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>香水</t>
+          <t>魂断蓝桥</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>370118</t>
+          <t>180437</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>牯岭街少年杀人事件</t>
+          <t>新世界</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>153805</t>
+          <t>189229</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>可可西里</t>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6414,12 +6414,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>175034</t>
+          <t>324632</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>谍影重重2</t>
+          <t>奇迹男孩</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>224034</t>
+          <t>369948</t>
         </is>
       </c>
     </row>
@@ -6464,22 +6464,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>疯狂的石头</t>
+          <t>终结者2：审判日</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>465739</t>
+          <t>227879</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>谍影重重</t>
+          <t>完美陌生人</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>267021</t>
+          <t>367328</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>朗读者</t>
+          <t>可可西里</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6534,12 +6534,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>337984</t>
+          <t>190204</t>
         </is>
       </c>
     </row>
@@ -6554,22 +6554,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>浪潮</t>
+          <t>初恋这件小事</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>176901</t>
+          <t>698664</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>战争之王</t>
+          <t>阿飞正传</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6594,12 +6594,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>230001</t>
+          <t>326010</t>
         </is>
       </c>
     </row>
@@ -6614,22 +6614,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>初恋这件小事</t>
+          <t>爱在午夜降临前</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>651083</t>
+          <t>192976</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>奇迹男孩</t>
+          <t>牯岭街少年杀人事件</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>335381</t>
+          <t>166586</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>地球上的星星</t>
+          <t>哈利·波特与密室</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6684,12 +6684,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>124395</t>
+          <t>342637</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>青蛇</t>
+          <t>猜火车</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>311542</t>
+          <t>323744</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>终结者2：审判日</t>
+          <t>2001太空漫游</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>204288</t>
+          <t>178115</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>爱在午夜降临前</t>
+          <t>香水</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6774,12 +6774,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>172549</t>
+          <t>391648</t>
         </is>
       </c>
     </row>
@@ -6794,22 +6794,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>釜山行</t>
+          <t>谍影重重2</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>590972</t>
+          <t>239702</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>新龙门客栈</t>
+          <t>谍影重重</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>265759</t>
+          <t>286164</t>
         </is>
       </c>
     </row>
@@ -6854,22 +6854,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>源代码</t>
+          <t>战争之王</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>529688</t>
+          <t>244168</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>步履不停</t>
+          <t>无耻混蛋</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>144997</t>
+          <t>325201</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>无耻混蛋</t>
+          <t>地球上的星星</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>301759</t>
+          <t>135166</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>小萝莉的猴神大叔</t>
+          <t>青蛇</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>282760</t>
+          <t>333170</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>新世界</t>
+          <t>新龙门客栈</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>160013</t>
+          <t>287400</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>再次出发之纽约遇见你</t>
+          <t>绿里奇迹</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7014,12 +7014,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>252379</t>
+          <t>168614</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>追随</t>
+          <t>浪潮</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7044,12 +7044,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>111000</t>
+          <t>188062</t>
         </is>
       </c>
     </row>
@@ -7064,22 +7064,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>一次别离</t>
+          <t>源代码</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>171659</t>
+          <t>558524</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>绿里奇迹</t>
+          <t>朗读者</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>152262</t>
+          <t>350512</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2001太空漫游</t>
+          <t>城市之光</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7134,12 +7134,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>157148</t>
+          <t>76040</t>
         </is>
       </c>
     </row>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>血钻</t>
+          <t>步履不停</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>202960</t>
+          <t>159239</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>彗星来的那一夜</t>
+          <t>小偷家族</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>286063</t>
+          <t>514027</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>城市之光</t>
+          <t>血钻</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7224,12 +7224,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>67259</t>
+          <t>224444</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>东京物语</t>
+          <t>彗星来的那一夜</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7254,12 +7254,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>75015</t>
+          <t>317093</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>306406</t>
+          <t>333557</t>
         </is>
       </c>
     </row>
@@ -7304,22 +7304,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>撞车</t>
+          <t>小萝莉的猴神大叔</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>222989</t>
+          <t>312077</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>梦之安魂曲</t>
+          <t>再次出发之纽约遇见你</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7344,12 +7344,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>147425</t>
+          <t>272670</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>聚焦</t>
+          <t>追随</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7374,12 +7374,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>176732</t>
+          <t>119846</t>
         </is>
       </c>
     </row>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>哈利·波特与阿兹卡班的囚徒</t>
+          <t>一次别离</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7404,12 +7404,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>274825</t>
+          <t>182424</t>
         </is>
       </c>
     </row>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>E.T. 外星人</t>
+          <t>东京物语</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>216457</t>
+          <t>82028</t>
         </is>
       </c>
     </row>
@@ -7454,22 +7454,22 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>遗愿清单</t>
+          <t>色，戒</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>198623</t>
+          <t>421307</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>黑鹰坠落</t>
+          <t>遗愿清单</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>174392</t>
+          <t>223106</t>
         </is>
       </c>
     </row>
@@ -7514,22 +7514,22 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>哈利·波特与密室</t>
+          <t>大佛普拉斯</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>294029</t>
+          <t>228784</t>
         </is>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>这个男人来自地球</t>
+          <t>聚焦</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>249595</t>
+          <t>189576</t>
         </is>
       </c>
     </row>
@@ -7574,22 +7574,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>末路狂花</t>
+          <t>驴得水</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>141029</t>
+          <t>583403</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>244893</t>
+          <t>262696</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>变脸</t>
+          <t>撞车</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>277995</t>
+          <t>235674</t>
         </is>
       </c>
     </row>
@@ -7664,22 +7664,22 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>驴得水</t>
+          <t>黑鹰坠落</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>520770</t>
+          <t>189591</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>我爱你</t>
+          <t>梦之安魂曲</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>87335</t>
+          <t>154846</t>
         </is>
       </c>
     </row>
@@ -7724,22 +7724,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>国王的演讲</t>
+          <t>我爱你</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>444017</t>
+          <t>96261</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>千钧一发</t>
+          <t>E.T. 外星人</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7764,12 +7764,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>135873</t>
+          <t>234314</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>勇闯夺命岛</t>
+          <t>千钧一发</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7794,12 +7794,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>185930</t>
+          <t>150973</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>黄金三镖客</t>
+          <t>变脸</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7824,12 +7824,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>73001</t>
+          <t>296235</t>
         </is>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>非常嫌疑犯</t>
+          <t>末路狂花</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>167373</t>
+          <t>150872</t>
         </is>
       </c>
     </row>
@@ -7874,26 +7874,26 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>秒速5厘米</t>
+          <t>四个春天</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>423697</t>
+          <t>101759</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>